--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.86845962394732</v>
+        <v>0.04225933333333334</v>
       </c>
       <c r="N2">
-        <v>1.86845962394732</v>
+        <v>0.126778</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.02137494054695286</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.02137494054695286</v>
       </c>
       <c r="Q2">
-        <v>271.5672766318784</v>
+        <v>6.862886025022</v>
       </c>
       <c r="R2">
-        <v>271.5672766318784</v>
+        <v>61.765974225198</v>
       </c>
       <c r="S2">
-        <v>0.3770716863987139</v>
+        <v>0.008358396223270446</v>
       </c>
       <c r="T2">
-        <v>0.3770716863987139</v>
+        <v>0.008358396223270446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.38518200466839</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>65.38518200466839</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.1696326867167437</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.86845962394732</v>
+        <v>1.934791</v>
       </c>
       <c r="N3">
-        <v>1.86845962394732</v>
+        <v>5.804373</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9786250594530471</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9786250594530471</v>
       </c>
       <c r="Q3">
-        <v>122.1695725801698</v>
+        <v>314.208698241927</v>
       </c>
       <c r="R3">
-        <v>122.1695725801698</v>
+        <v>2827.878284177343</v>
       </c>
       <c r="S3">
-        <v>0.1696326867167437</v>
+        <v>0.3826787720397305</v>
       </c>
       <c r="T3">
-        <v>0.1696326867167437</v>
+        <v>0.3826787720397305</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>113.557180850918</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H4">
-        <v>113.557180850918</v>
+        <v>196.252094</v>
       </c>
       <c r="I4">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J4">
-        <v>0.2946081832783616</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.86845962394732</v>
+        <v>0.04225933333333334</v>
       </c>
       <c r="N4">
-        <v>1.86845962394732</v>
+        <v>0.126778</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.02137494054695286</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.02137494054695286</v>
       </c>
       <c r="Q4">
-        <v>212.177007429224</v>
+        <v>2.764494219236889</v>
       </c>
       <c r="R4">
-        <v>212.177007429224</v>
+        <v>24.880447973132</v>
       </c>
       <c r="S4">
-        <v>0.2946081832783616</v>
+        <v>0.003366912689075078</v>
       </c>
       <c r="T4">
-        <v>0.2946081832783616</v>
+        <v>0.003366912689075078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.1663210839279</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H5">
-        <v>61.1663210839279</v>
+        <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.158687443606181</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J5">
-        <v>0.158687443606181</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.86845962394732</v>
+        <v>1.934791</v>
       </c>
       <c r="N5">
-        <v>1.86845962394732</v>
+        <v>5.804373</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9786250594530471</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9786250594530471</v>
       </c>
       <c r="Q5">
-        <v>114.2868012907169</v>
+        <v>126.5689284007847</v>
       </c>
       <c r="R5">
-        <v>114.2868012907169</v>
+        <v>1139.120355607062</v>
       </c>
       <c r="S5">
-        <v>0.158687443606181</v>
+        <v>0.1541499085474198</v>
       </c>
       <c r="T5">
-        <v>0.158687443606181</v>
+        <v>0.1541499085474198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>126.3069433333333</v>
+      </c>
+      <c r="H6">
+        <v>378.92083</v>
+      </c>
+      <c r="I6">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="J6">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.04225933333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.126778</v>
+      </c>
+      <c r="O6">
+        <v>0.02137494054695286</v>
+      </c>
+      <c r="P6">
+        <v>0.02137494054695286</v>
+      </c>
+      <c r="Q6">
+        <v>5.337647220637778</v>
+      </c>
+      <c r="R6">
+        <v>48.03882498574001</v>
+      </c>
+      <c r="S6">
+        <v>0.006500788474042272</v>
+      </c>
+      <c r="T6">
+        <v>0.006500788474042274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>126.3069433333333</v>
+      </c>
+      <c r="H7">
+        <v>378.92083</v>
+      </c>
+      <c r="I7">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="J7">
+        <v>0.3041313008456065</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.934791</v>
+      </c>
+      <c r="N7">
+        <v>5.804373</v>
+      </c>
+      <c r="O7">
+        <v>0.9786250594530471</v>
+      </c>
+      <c r="P7">
+        <v>0.9786250594530471</v>
+      </c>
+      <c r="Q7">
+        <v>244.3775371988433</v>
+      </c>
+      <c r="R7">
+        <v>2199.39783478959</v>
+      </c>
+      <c r="S7">
+        <v>0.2976305123715642</v>
+      </c>
+      <c r="T7">
+        <v>0.2976305123715642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>61.180387</v>
+      </c>
+      <c r="H8">
+        <v>183.541161</v>
+      </c>
+      <c r="I8">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J8">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04225933333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.126778</v>
+      </c>
+      <c r="O8">
+        <v>0.02137494054695286</v>
+      </c>
+      <c r="P8">
+        <v>0.02137494054695286</v>
+      </c>
+      <c r="Q8">
+        <v>2.585442367695333</v>
+      </c>
+      <c r="R8">
+        <v>23.268981309258</v>
+      </c>
+      <c r="S8">
+        <v>0.003148843160565063</v>
+      </c>
+      <c r="T8">
+        <v>0.003148843160565064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>61.180387</v>
+      </c>
+      <c r="H9">
+        <v>183.541161</v>
+      </c>
+      <c r="I9">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="J9">
+        <v>0.1473147096548978</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.934791</v>
+      </c>
+      <c r="N9">
+        <v>5.804373</v>
+      </c>
+      <c r="O9">
+        <v>0.9786250594530471</v>
+      </c>
+      <c r="P9">
+        <v>0.9786250594530471</v>
+      </c>
+      <c r="Q9">
+        <v>118.371262144117</v>
+      </c>
+      <c r="R9">
+        <v>1065.341359297053</v>
+      </c>
+      <c r="S9">
+        <v>0.1441658664943327</v>
+      </c>
+      <c r="T9">
+        <v>0.1441658664943327</v>
       </c>
     </row>
   </sheetData>
